--- a/Slides/data/AE-Sanquetta.xlsx
+++ b/Slides/data/AE-Sanquetta.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37cd5d8700b5386d/GitHub/FL03039-Inventario-Florestal/Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_EA847E4880C39F2A3D0F3307DB3B8535DD079E89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B609466F-FD0F-4EA6-803D-29E731FCBDAF}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_EA847E4880C39F2A3D0F3307DB3B8535DD079E89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF7D434-3121-4178-99BC-4A3C81C9019C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -126,7 +126,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -466,7 +466,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Slides/data/AE-Sanquetta.xlsx
+++ b/Slides/data/AE-Sanquetta.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37cd5d8700b5386d/GitHub/FL03039-Inventario-Florestal/Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_EA847E4880C39F2A3D0F3307DB3B8535DD079E89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF7D434-3121-4178-99BC-4A3C81C9019C}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_EA847E4880C39F2A3D0F3307DB3B8535DD079E89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5B41521-8463-4FCD-B4FC-60E56341A026}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -118,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,6 +140,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,16 +475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="1016" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -618,6 +632,9 @@
         <v>130</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
